--- a/biology/Biologie cellulaire et moléculaire/BCL2L2/BCL2L2.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/BCL2L2/BCL2L2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le BCL2L2, ou BCL-W est une protéine appartenant à la famille Bcl-2. Son gène est le BCL2L2 situé sur le chromosome 14 humain.
 </t>
@@ -511,11 +523,13 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est exprimé dans plusieurs tissus : cerveau, côlon, testicules (intervenant dans la spermatogenèse[5]), cellules sanguines[6]...
-Il joue un rôle protecteur sur les cellules lymphoïdes et myéloïdes[7].
-Son expression est diminué par le microARN 15a[8] et est régulé par le MYC[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est exprimé dans plusieurs tissus : cerveau, côlon, testicules (intervenant dans la spermatogenèse), cellules sanguines...
+Il joue un rôle protecteur sur les cellules lymphoïdes et myéloïdes.
+Son expression est diminué par le microARN 15a et est régulé par le MYC.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est exprimé dans plusieurs types de cancers : cancer de l'estomac[10], du côlon[11], plusieurs lymphomes (dont c'est un marqueur de mauvais pronostic[9])... favorisant l'extension de ces derniers par son activité anti-apoptose.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est exprimé dans plusieurs types de cancers : cancer de l'estomac, du côlon, plusieurs lymphomes (dont c'est un marqueur de mauvais pronostic)... favorisant l'extension de ces derniers par son activité anti-apoptose.
 </t>
         </is>
       </c>
